--- a/Mifos Automation Excels/Client/2361-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2361-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,10 +347,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,11 +907,11 @@
         <v>5000</v>
       </c>
       <c r="F2" s="19">
-        <v>1674.53</v>
+        <v>1664.71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="4">
         <v>75.099999999999994</v>
       </c>
       <c r="B3" s="4">
@@ -924,11 +923,11 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="4">
         <v>75.099999999999994</v>
       </c>
-      <c r="F3" s="21">
-        <v>28.47</v>
+      <c r="F3" s="4">
+        <v>29.17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,11 +1061,11 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20">
+      <c r="F2" s="11"/>
+      <c r="G2" s="13">
         <v>5000</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="11">
         <v>0</v>
       </c>
@@ -1080,7 +1079,7 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="20"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -1094,14 +1093,14 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="20">
-        <v>838.58</v>
+      <c r="F3" s="11">
+        <v>834.44</v>
       </c>
       <c r="G3" s="20">
-        <v>4161.42</v>
-      </c>
-      <c r="H3" s="20">
-        <v>12.92</v>
+        <v>4165.5600000000004</v>
+      </c>
+      <c r="H3" s="11">
+        <v>12.5</v>
       </c>
       <c r="I3" s="11">
         <v>0</v>
@@ -1109,8 +1108,8 @@
       <c r="J3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="20">
-        <v>851.5</v>
+      <c r="K3" s="11">
+        <v>846.94</v>
       </c>
       <c r="L3" s="11">
         <v>0</v>
@@ -1124,37 +1123,39 @@
       <c r="O3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="20">
-        <v>851.5</v>
+      <c r="P3" s="11">
+        <v>846.94</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>28</v>
       </c>
       <c r="C4" s="12">
         <v>42064</v>
       </c>
-      <c r="F4" s="20">
-        <v>835.94</v>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>830.27</v>
       </c>
       <c r="G4" s="20">
-        <v>3325.47</v>
-      </c>
-      <c r="H4" s="20">
-        <v>15.56</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>851.5</v>
+        <v>3335.29</v>
+      </c>
+      <c r="H4" s="11">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>846.94</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
@@ -1168,37 +1169,39 @@
       <c r="O4" s="11">
         <v>0</v>
       </c>
-      <c r="P4" s="20">
-        <v>851.5</v>
+      <c r="P4" s="11">
+        <v>846.94</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>31</v>
       </c>
       <c r="C5" s="12">
         <v>42095</v>
       </c>
-      <c r="F5" s="20">
-        <v>829.97</v>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>826.11</v>
       </c>
       <c r="G5" s="20">
-        <v>2495.5</v>
-      </c>
-      <c r="H5" s="20">
-        <v>21.53</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>851.5</v>
+        <v>2509.1799999999998</v>
+      </c>
+      <c r="H5" s="11">
+        <v>20.83</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>846.94</v>
       </c>
       <c r="L5" s="11">
         <v>0</v>
@@ -1212,37 +1215,39 @@
       <c r="O5" s="11">
         <v>0</v>
       </c>
-      <c r="P5" s="20">
-        <v>851.5</v>
+      <c r="P5" s="11">
+        <v>846.94</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>30</v>
       </c>
       <c r="C6" s="12">
         <v>42125</v>
       </c>
-      <c r="F6" s="20">
-        <v>839.02</v>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>834.39</v>
       </c>
       <c r="G6" s="20">
-        <v>1656.48</v>
-      </c>
-      <c r="H6" s="20">
-        <v>12.48</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>851.5</v>
+        <v>1674.79</v>
+      </c>
+      <c r="H6" s="11">
+        <v>12.55</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>846.94</v>
       </c>
       <c r="L6" s="11">
         <v>0</v>
@@ -1256,37 +1261,39 @@
       <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="20">
-        <v>851.5</v>
+      <c r="P6" s="11">
+        <v>846.94</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>31</v>
       </c>
       <c r="C7" s="12">
         <v>42156</v>
       </c>
-      <c r="F7" s="20">
-        <v>842.94</v>
-      </c>
-      <c r="G7" s="20">
-        <v>813.54</v>
-      </c>
-      <c r="H7" s="20">
-        <v>8.56</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>851.5</v>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>838.57</v>
+      </c>
+      <c r="G7" s="11">
+        <v>836.22</v>
+      </c>
+      <c r="H7" s="11">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>846.94</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>
@@ -1300,37 +1307,39 @@
       <c r="O7" s="11">
         <v>0</v>
       </c>
-      <c r="P7" s="20">
-        <v>851.5</v>
+      <c r="P7" s="11">
+        <v>846.94</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>30</v>
       </c>
       <c r="C8" s="12">
         <v>42186</v>
       </c>
-      <c r="F8" s="20">
-        <v>813.54</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>4.07</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>851.5</v>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>836.22</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4.18</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>840.4</v>
       </c>
       <c r="L8" s="11">
         <v>0</v>
@@ -1344,8 +1353,8 @@
       <c r="O8" s="11">
         <v>0</v>
       </c>
-      <c r="P8" s="20">
-        <v>851.5</v>
+      <c r="P8" s="11">
+        <v>840.4</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2361-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2361-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
@@ -15,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -199,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,6 +365,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -432,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,9 +473,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,6 +525,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -977,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,12 +1040,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1043,17 +1086,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12">
@@ -1080,8 +1124,9 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1117,17 +1162,18 @@
       <c r="M3" s="11">
         <v>0</v>
       </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
+      <c r="N3" s="11"/>
       <c r="O3" s="11">
         <v>0</v>
       </c>
       <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
         <v>846.94</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1163,17 +1209,18 @@
       <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
+      <c r="N4" s="11"/>
       <c r="O4" s="11">
         <v>0</v>
       </c>
       <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
         <v>846.94</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1209,17 +1256,18 @@
       <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
+      <c r="N5" s="11"/>
       <c r="O5" s="11">
         <v>0</v>
       </c>
       <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
         <v>846.94</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1255,17 +1303,18 @@
       <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="11">
         <v>0</v>
       </c>
       <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
         <v>846.94</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1301,17 +1350,18 @@
       <c r="M7" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
+      <c r="N7" s="11"/>
       <c r="O7" s="11">
         <v>0</v>
       </c>
       <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
         <v>846.94</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1347,13 +1397,14 @@
       <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
+      <c r="N8" s="11"/>
       <c r="O8" s="11">
         <v>0</v>
       </c>
       <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <v>840.4</v>
       </c>
     </row>
